--- a/sampledata.xlsx
+++ b/sampledata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\kptvehiclereg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E79B979-457A-4125-921A-130EF70760D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE15444-6DE9-4C57-AC25-31669517C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21336" windowHeight="11376" xr2:uid="{955CEB3C-B0E9-45A3-8022-B3371C9E475F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{955CEB3C-B0E9-45A3-8022-B3371C9E475F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>ownerName</t>
   </si>
@@ -72,166 +72,289 @@
     <t>drivingLicenseNumber</t>
   </si>
   <si>
-    <t>John Dsouza</t>
-  </si>
-  <si>
-    <t>23CS001</t>
+    <t>2-wheeler</t>
+  </si>
+  <si>
+    <t>Own</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>4-wheeler</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>Narasimha Prabhu</t>
+  </si>
+  <si>
+    <t>nnprabhu@gmail.com</t>
+  </si>
+  <si>
+    <t>KA19EH3050</t>
+  </si>
+  <si>
+    <t>SUZUKI ACCESS</t>
+  </si>
+  <si>
+    <t>TVs</t>
+  </si>
+  <si>
+    <t>KA3119870000592</t>
+  </si>
+  <si>
+    <t>DEVARAJA NAIK</t>
+  </si>
+  <si>
+    <t>rajaishnaik@gmail.com</t>
+  </si>
+  <si>
+    <t>KA04A7921</t>
+  </si>
+  <si>
+    <t>TATA SUMO</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>SUMO</t>
+  </si>
+  <si>
+    <t>KA1920160003523</t>
+  </si>
+  <si>
+    <t>Vishwanatha Mane</t>
+  </si>
+  <si>
+    <t>vishwanathmane@gmail.com</t>
+  </si>
+  <si>
+    <t>KA19MF5365</t>
+  </si>
+  <si>
+    <t>Maruthi Swift</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Annappa Mane</t>
+  </si>
+  <si>
+    <t>Maruthi</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Udhayakumar A</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>udhaidhass@gmail.com</t>
+  </si>
+  <si>
+    <t>TN37DE8967</t>
+  </si>
+  <si>
+    <t>BAJAJ DISCOVER 125</t>
+  </si>
+  <si>
+    <t>BAJAJ</t>
+  </si>
+  <si>
+    <t>DISCOVER 125</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>TN67W20240001443</t>
+  </si>
+  <si>
+    <t>DEVARAJU D</t>
+  </si>
+  <si>
+    <t>devarajulvp@gmail.com</t>
+  </si>
+  <si>
+    <t>KA13EH7755</t>
+  </si>
+  <si>
+    <t>HONDA ACTIVA</t>
+  </si>
+  <si>
+    <t>ACTIVA 3G</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>KA13 20030100119</t>
+  </si>
+  <si>
+    <t>Likhitha k</t>
   </si>
   <si>
     <t>cs</t>
   </si>
   <si>
-    <t>john.d@example.com</t>
-  </si>
-  <si>
-    <t>KA19AB1234</t>
-  </si>
-  <si>
-    <t>Activa 5G</t>
-  </si>
-  <si>
-    <t>2-wheeler</t>
-  </si>
-  <si>
-    <t>Own</t>
+    <t>likhithahegde19@gmail.com</t>
+  </si>
+  <si>
+    <t>KA19EV3427</t>
+  </si>
+  <si>
+    <t>HONDA DIO</t>
   </si>
   <si>
     <t>Honda</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>KA0123456789</t>
-  </si>
-  <si>
-    <t>Priya Shetty</t>
-  </si>
-  <si>
-    <t>23EC012</t>
-  </si>
-  <si>
-    <t>ec</t>
-  </si>
-  <si>
-    <t>priya.s@example.com</t>
-  </si>
-  <si>
-    <t>KA19XY9876</t>
-  </si>
-  <si>
-    <t>Access 125</t>
-  </si>
-  <si>
-    <t>Relative</t>
-  </si>
-  <si>
-    <t>Shankar Shetty</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>KA0987654321</t>
-  </si>
-  <si>
-    <t>Rahul Nayak</t>
-  </si>
-  <si>
-    <t>22ME034</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>rahul.n@example.com</t>
-  </si>
-  <si>
-    <t>KA19CD4567</t>
-  </si>
-  <si>
-    <t>Swift Dzire</t>
-  </si>
-  <si>
-    <t>4-wheeler</t>
-  </si>
-  <si>
-    <t>Maruti</t>
-  </si>
-  <si>
-    <t>Dzire VXI</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>KA1234567890</t>
-  </si>
-  <si>
-    <t>Anjali Rao</t>
-  </si>
-  <si>
-    <t>21CH056</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>anjali.r@example.com</t>
-  </si>
-  <si>
-    <t>KA19EF7890</t>
-  </si>
-  <si>
-    <t>Jupiter</t>
+    <t>HONDA DIO BS IV</t>
+  </si>
+  <si>
+    <t>KA7020200004937</t>
+  </si>
+  <si>
+    <t>SANTOSH JUDE FERNANDES</t>
+  </si>
+  <si>
+    <t>santoshfernandes49@gmail. com</t>
+  </si>
+  <si>
+    <t>KA30 K0049</t>
+  </si>
+  <si>
+    <t>BIKE</t>
+  </si>
+  <si>
+    <t>HEROHONDA SPLENDOR</t>
+  </si>
+  <si>
+    <t>SPLENDOR</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>KA3020039001076</t>
+  </si>
+  <si>
+    <t>Tahaseen Ara</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>oswald.ta@gmail.com</t>
+  </si>
+  <si>
+    <t>KA13HC0878</t>
+  </si>
+  <si>
+    <t>AZHAR K T</t>
+  </si>
+  <si>
+    <t>ACTIVA 6G</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>KA1320150014341</t>
+  </si>
+  <si>
+    <t>Deepak G Talekar</t>
+  </si>
+  <si>
+    <t>deepakgtalekar@gmail.com</t>
+  </si>
+  <si>
+    <t>KA30N1096</t>
+  </si>
+  <si>
+    <t>URBAN CRUISER</t>
+  </si>
+  <si>
+    <t>Deepak Talekar</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Silver123</t>
+  </si>
+  <si>
+    <t>Dinesha</t>
+  </si>
+  <si>
+    <t>dineshakavoor777@gmail.com</t>
+  </si>
+  <si>
+    <t>KA70J7535</t>
+  </si>
+  <si>
+    <t>Ntorq</t>
   </si>
   <si>
     <t>Friend</t>
   </si>
   <si>
-    <t>Nithin Rao</t>
-  </si>
-  <si>
-    <t>TVS</t>
-  </si>
-  <si>
-    <t>Jupiter ZX</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>KA1122334455</t>
-  </si>
-  <si>
-    <t>Vinay Kumar</t>
-  </si>
-  <si>
-    <t>22AT078</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>vinay.k@example.com</t>
-  </si>
-  <si>
-    <t>KA19GH1357</t>
-  </si>
-  <si>
-    <t>Pulsar 150</t>
-  </si>
-  <si>
-    <t>Bajaj</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>KA2233445566</t>
+    <t>Girish</t>
+  </si>
+  <si>
+    <t>Ntorq 125 Super squad</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>KA1920230008592</t>
+  </si>
+  <si>
+    <t>BH226285M</t>
+  </si>
+  <si>
+    <t>WOKESVAGAN</t>
+  </si>
+  <si>
+    <t>Olive green</t>
+  </si>
+  <si>
+    <t>KA310000592</t>
+  </si>
+  <si>
+    <t>KA13N2829</t>
+  </si>
+  <si>
+    <t>MARUTI SWIFT</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t>VDI</t>
   </si>
 </sst>
 </file>
@@ -247,28 +370,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,24 +410,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,298 +750,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F76C8E-A8DF-4BB0-AA4B-9F50C2709564}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O6"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9448010810</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2013</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2">
-        <v>9876543210</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="3">
+        <v>9742023708</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9482596810</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9597906369</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9481115003</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8277365351</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9448996215</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8970086637</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7019411903</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8197053780</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9448010810</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9123456780</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9012345678</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9988776655</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="2" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9741127644</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="O13" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9090909090</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="mailto:john.d@example.com" xr:uid="{353EBB79-15A0-4F75-BDEC-26B7C88B0E02}"/>
-    <hyperlink ref="F3" r:id="rId2" display="mailto:priya.s@example.com" xr:uid="{AE47D691-83B2-456B-9285-80C61370468C}"/>
-    <hyperlink ref="F4" r:id="rId3" display="mailto:rahul.n@example.com" xr:uid="{79706A3B-1655-4B2B-98E2-37AE51498E04}"/>
-    <hyperlink ref="F5" r:id="rId4" display="mailto:anjali.r@example.com" xr:uid="{40965B59-6686-4FB3-BAAA-4BCDBFB56A86}"/>
-    <hyperlink ref="F6" r:id="rId5" display="mailto:vinay.k@example.com" xr:uid="{D0E68759-F7C2-49A8-A139-14D1226C0F25}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>